--- a/static/files/student.xlsx
+++ b/static/files/student.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -43,10 +43,16 @@
     <t>SchoolName</t>
   </si>
   <si>
+    <t>StudentPhoneNumber</t>
+  </si>
+  <si>
     <t>PName</t>
   </si>
   <si>
-    <t>PhoneNumber</t>
+    <t>ParentMobile</t>
+  </si>
+  <si>
+    <t>ParentWork</t>
   </si>
   <si>
     <t>Address</t>
@@ -160,22 +166,28 @@
     <t>jo</t>
   </si>
   <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>joj</t>
+  </si>
+  <si>
+    <t>oj</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
     <t>l@l.l</t>
   </si>
   <si>
     <t>l</t>
   </si>
   <si>
-    <t>Ko</t>
-  </si>
-  <si>
-    <t>Lakshadweep</t>
-  </si>
-  <si>
-    <t>ko@ko.ko</t>
-  </si>
-  <si>
-    <t>ko</t>
+    <t>gf</t>
   </si>
 </sst>
 </file>
@@ -524,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +544,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,8 +599,14 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -596,58 +614,60 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="n">
+        <v>27</v>
+      </c>
+      <c r="K2" t="n">
         <v>999999999</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
       <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="n">
         <v>55555</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
       </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -655,44 +675,46 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s"/>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s"/>
       <c r="H3" t="s"/>
       <c r="I3" t="s"/>
       <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="n">
+      <c r="K3" t="n">
         <v>9999999999</v>
       </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
       <c r="O3" t="s">
         <v>38</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="n">
         <v>6666666</v>
       </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s"/>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -700,12 +722,12 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s"/>
       <c r="H4" t="s"/>
@@ -715,21 +737,23 @@
       <c r="L4" t="s"/>
       <c r="M4" t="s"/>
       <c r="N4" t="s"/>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -737,12 +761,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s"/>
       <c r="H5" t="s"/>
@@ -752,15 +776,17 @@
       <c r="L5" t="s"/>
       <c r="M5" t="s"/>
       <c r="N5" t="s"/>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -768,118 +794,101 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s"/>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
       <c r="M6" t="s"/>
       <c r="N6" t="s"/>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" t="s"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
       <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
       <c r="O7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R7" t="s">
         <v>49</v>
       </c>
-      <c r="S7" t="s"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s"/>
-      <c r="L8" t="n">
-        <v>6666666666</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6666666</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R8" t="s">
-        <v>53</v>
-      </c>
-      <c r="S8" t="s"/>
+      <c r="S7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" t="s">
+        <v>56</v>
+      </c>
+      <c r="U7" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/static/files/student.xlsx
+++ b/static/files/student.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -166,28 +166,19 @@
     <t>jo</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>joj</t>
-  </si>
-  <si>
-    <t>oj</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>Jharkhand</t>
-  </si>
-  <si>
-    <t>l@l.l</t>
+    <t>hjklklklk</t>
+  </si>
+  <si>
+    <t>fgjhjk</t>
+  </si>
+  <si>
+    <t>hjkpopopopopopo</t>
+  </si>
+  <si>
+    <t>hj</t>
   </si>
   <si>
     <t>l</t>
-  </si>
-  <si>
-    <t>gf</t>
   </si>
 </sst>
 </file>
@@ -834,61 +825,39 @@
       <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="s"/>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s">
         <v>53</v>
       </c>
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
         <v>54</v>
       </c>
-      <c r="R7" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7" t="s">
-        <v>56</v>
-      </c>
-      <c r="U7" t="s">
-        <v>57</v>
-      </c>
+      <c r="U7" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/static/files/student.xlsx
+++ b/static/files/student.xlsx
@@ -97,52 +97,52 @@
     <t>32</t>
   </si>
   <si>
+    <t>Ravinder</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>fghij</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>vkrishr.teja@gmail.com</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>92.6</t>
+  </si>
+  <si>
+    <t>blah blah</t>
+  </si>
+  <si>
+    <t>blah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GH@GGJ.VOM</t>
+  </si>
+  <si>
+    <t>djkk</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>blah@gmail.com</t>
+  </si>
+  <si>
+    <t>yyuuyyuu</t>
+  </si>
+  <si>
     <t>griet</t>
-  </si>
-  <si>
-    <t>Ravinder</t>
-  </si>
-  <si>
-    <t>abcde</t>
-  </si>
-  <si>
-    <t>fghij</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>vkrishr.teja@gmail.com</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>92.6</t>
-  </si>
-  <si>
-    <t>blah blah</t>
-  </si>
-  <si>
-    <t>blah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>GH@GGJ.VOM</t>
-  </si>
-  <si>
-    <t>djkk</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>blah@gmail.com</t>
-  </si>
-  <si>
-    <t>yyuuyyuu</t>
   </si>
   <si>
     <t>hi@hi.com</t>
@@ -625,37 +625,35 @@
       <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
+      <c r="J2" t="s"/>
       <c r="K2" t="n">
         <v>999999999</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s"/>
       <c r="N2" t="s"/>
       <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
       </c>
       <c r="R2" t="n">
         <v>55555</v>
       </c>
       <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -666,14 +664,14 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
       </c>
       <c r="E3" t="s"/>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s"/>
       <c r="H3" t="s"/>
@@ -686,22 +684,22 @@
       <c r="M3" t="s"/>
       <c r="N3" t="s"/>
       <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
         <v>38</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>40</v>
       </c>
       <c r="R3" t="n">
         <v>6666666</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s"/>
     </row>
@@ -713,17 +711,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s"/>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
       <c r="M4" t="s"/>
@@ -731,7 +731,7 @@
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s">
@@ -757,7 +757,7 @@
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s"/>
       <c r="H5" t="s"/>
@@ -770,7 +770,7 @@
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
@@ -792,14 +792,12 @@
       </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s"/>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
+      <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
       <c r="M6" t="s"/>
@@ -807,7 +805,7 @@
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s">
@@ -835,7 +833,7 @@
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s"/>
       <c r="H7" t="s"/>
@@ -848,7 +846,7 @@
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s">

--- a/static/files/student.xlsx
+++ b/static/files/student.xlsx
@@ -79,106 +79,106 @@
     <t>Krishna Teja</t>
   </si>
   <si>
-    <t>Reddy</t>
+    <t xml:space="preserve">Reddy </t>
   </si>
   <si>
     <t>28-08-1996</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>10th</t>
+    <t>male</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>32</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>griet</t>
   </si>
   <si>
     <t>Ravinder</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>abcde</t>
   </si>
   <si>
     <t>fghij</t>
   </si>
   <si>
+    <t xml:space="preserve"> Bihar</t>
+  </si>
+  <si>
+    <t>vkrishr.teja@gmail.com</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>92.6</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>llll</t>
+  </si>
+  <si>
+    <t>lll</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>blah</t>
+  </si>
+  <si>
+    <t>yyuuyyuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>hi@hi.com</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>mnmnm</t>
+  </si>
+  <si>
+    <t>vgy</t>
+  </si>
+  <si>
     <t>Haryana</t>
   </si>
   <si>
-    <t>vkrishr.teja@gmail.com</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>92.6</t>
-  </si>
-  <si>
-    <t>blah blah</t>
-  </si>
-  <si>
-    <t>blah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>GH@GGJ.VOM</t>
-  </si>
-  <si>
-    <t>djkk</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>blah@gmail.com</t>
-  </si>
-  <si>
-    <t>yyuuyyuu</t>
-  </si>
-  <si>
-    <t>griet</t>
-  </si>
-  <si>
-    <t>hi@hi.com</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>mnmnm</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
     <t>wu</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>jo@jo.com</t>
   </si>
   <si>
     <t>jo</t>
   </si>
   <si>
-    <t>hjklklklk</t>
-  </si>
-  <si>
-    <t>fgjhjk</t>
-  </si>
-  <si>
-    <t>hjkpopopopopopo</t>
-  </si>
-  <si>
-    <t>hj</t>
-  </si>
-  <si>
-    <t>l</t>
+    <t>hjklklklkaaa</t>
   </si>
 </sst>
 </file>
@@ -625,35 +625,41 @@
       <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s"/>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
       <c r="K2" t="n">
         <v>999999999</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R2" t="n">
         <v>55555</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -664,44 +670,62 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="n">
-        <v>9999999999</v>
-      </c>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
       <c r="O3" t="s">
         <v>37</v>
       </c>
       <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6666666</v>
-      </c>
-      <c r="S3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" t="s"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="n">
@@ -716,13 +740,15 @@
       <c r="D4" t="s"/>
       <c r="E4" t="s"/>
       <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -731,17 +757,17 @@
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -752,17 +778,21 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
       <c r="M5" t="s"/>
@@ -770,7 +800,7 @@
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
@@ -785,19 +815,23 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
       <c r="M6" t="s"/>
@@ -805,14 +839,14 @@
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s"/>
     </row>
@@ -824,16 +858,12 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s"/>
       <c r="H7" t="s"/>
@@ -846,14 +876,12 @@
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s">
-        <v>53</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s"/>
     </row>
